--- a/11-CollaborationList/DOE-LLNL.xlsx
+++ b/11-CollaborationList/DOE-LLNL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://api.box.com/wopi/files/2056673848026/WOPIServiceId_TP_BOX_2/WOPIUserId_-/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{DC976371-8554-F24A-BEAB-DC213531F277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F3EE4E0-DA05-4342-84EF-8AB952B06FC7}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{DC976371-8554-F24A-BEAB-DC213531F277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F716B51-A4F5-9D4F-BF75-669A7130C382}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{B041FEAE-BE1E-B04B-A3B2-E9C9448B7A33}"/>
+    <workbookView xWindow="2780" yWindow="8800" windowWidth="28040" windowHeight="17440" xr2:uid="{B041FEAE-BE1E-B04B-A3B2-E9C9448B7A33}"/>
   </bookViews>
   <sheets>
     <sheet name="JohnAdamsInstitute" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Title</t>
   </si>
@@ -73,9 +73,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>A.</t>
-  </si>
-  <si>
     <t>Dr.</t>
   </si>
   <si>
@@ -91,10 +88,16 @@
     <t>Snijders</t>
   </si>
   <si>
-    <t>A. Snijders</t>
-  </si>
-  <si>
     <t>Lawrence Livermore National Laboratory, 7000 East Avenue, Livermore, CA 94550, USA</t>
+  </si>
+  <si>
+    <t>A.M.</t>
+  </si>
+  <si>
+    <t>A.M. Snijders</t>
+  </si>
+  <si>
+    <t>0000-0002-7086-1063</t>
   </si>
 </sst>
 </file>
@@ -994,7 +997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A38D86E-A0CA-AC4E-9E28-0478CB9EC53A}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
@@ -1074,28 +1077,31 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="H2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
-        <v>24</v>
+      <c r="N2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
